--- a/target/test-classes/testdata/Login.xlsx
+++ b/target/test-classes/testdata/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANHTESTER\SeleniumJava\Course_Selenium_Java_5_2024\SeleniumTestNGParallel112023\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40EDEE1-5CF0-4CF9-9FD8-27686BED0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D91C0FE-31E9-496B-93FD-6007589425D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{F0087DE4-D12B-4E33-A8BC-D2F050A0AE66}"/>
+    <workbookView xWindow="5100" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{F0087DE4-D12B-4E33-A8BC-D2F050A0AE66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,9 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574994D-3EE4-47F8-A072-EAE2C65DB178}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
